--- a/biology/Biochimie/Sérine_O-acétyltransférase/Sérine_O-acétyltransférase.xlsx
+++ b/biology/Biochimie/Sérine_O-acétyltransférase/Sérine_O-acétyltransférase.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F2"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>S%C3%A9rine_O-ac%C3%A9tyltransf%C3%A9rase</t>
+          <t>Sérine_O-acétyltransférase</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,14 +490,16 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">La sérine O-acétyltransférase, ou SAT, est une acétyltransférase qui catalyse la réaction :
 Acétyl-CoA + L-sérine  
         ⇌
     {\displaystyle \rightleftharpoons }
   CoA + O-acétyl-L-sérine.
-Cette enzyme intervient dans la conversion de la sérine en cystéine chez les plantes et les bactéries[2]. L'activité enzymatique est portée par le domaine N-terminal de la protéine, domaine qui est conservé chez tous ces organismes[3]. Ce domaine est constitué de huit hélices α et son site actif contient une triade catalytique formée notamment par les résidus His158 et Asp143 avec le substrat, ce qui catalyse son acétylation[4].
+Cette enzyme intervient dans la conversion de la sérine en cystéine chez les plantes et les bactéries. L'activité enzymatique est portée par le domaine N-terminal de la protéine, domaine qui est conservé chez tous ces organismes. Ce domaine est constitué de huit hélices α et son site actif contient une triade catalytique formée notamment par les résidus His158 et Asp143 avec le substrat, ce qui catalyse son acétylation.
 </t>
         </is>
       </c>
